--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +94,7 @@
     <t>Adam23</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +540,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H2">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I2">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J2">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="N2">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="O2">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="P2">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="Q2">
-        <v>23.85062655632501</v>
+        <v>0.002406990942666667</v>
       </c>
       <c r="R2">
-        <v>23.85062655632501</v>
+        <v>0.021662918484</v>
       </c>
       <c r="S2">
-        <v>0.3621966442822415</v>
+        <v>3.174185698305392E-05</v>
       </c>
       <c r="T2">
-        <v>0.3621966442822415</v>
+        <v>3.174185698305392E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H3">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I3">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J3">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N3">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="O3">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="P3">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="Q3">
-        <v>0.8289805986254688</v>
+        <v>1.023344659314667</v>
       </c>
       <c r="R3">
-        <v>0.8289805986254688</v>
+        <v>9.210101933832</v>
       </c>
       <c r="S3">
-        <v>0.0125889351496975</v>
+        <v>0.01349521481138228</v>
       </c>
       <c r="T3">
-        <v>0.0125889351496975</v>
+        <v>0.01349521481138228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H4">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I4">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J4">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0534272204775867</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="N4">
-        <v>0.0534272204775867</v>
+        <v>0.016582</v>
       </c>
       <c r="O4">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="P4">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="Q4">
-        <v>0.08994177515484898</v>
+        <v>0.0003880409093333333</v>
       </c>
       <c r="R4">
-        <v>0.08994177515484898</v>
+        <v>0.003492368184</v>
       </c>
       <c r="S4">
-        <v>0.001365859679406833</v>
+        <v>5.117235312064322E-06</v>
       </c>
       <c r="T4">
-        <v>0.001365859679406833</v>
+        <v>5.117235312064324E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H5">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I5">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J5">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.52383677487363</v>
+        <v>0.6300623333333333</v>
       </c>
       <c r="N5">
-        <v>3.52383677487363</v>
+        <v>1.890187</v>
       </c>
       <c r="O5">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="P5">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="Q5">
-        <v>5.93218460655336</v>
+        <v>0.04423289604933333</v>
       </c>
       <c r="R5">
-        <v>5.93218460655336</v>
+        <v>0.398096064444</v>
       </c>
       <c r="S5">
-        <v>0.09008641146941267</v>
+        <v>0.000583315140682965</v>
       </c>
       <c r="T5">
-        <v>0.09008641146941267</v>
+        <v>0.000583315140682965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.92725472718304</v>
+        <v>0.070204</v>
       </c>
       <c r="H6">
-        <v>1.92725472718304</v>
+        <v>0.210612</v>
       </c>
       <c r="I6">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J6">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.1677510963009</v>
+        <v>0.068201</v>
       </c>
       <c r="N6">
-        <v>14.1677510963009</v>
+        <v>0.204603</v>
       </c>
       <c r="O6">
-        <v>0.7768495068152008</v>
+        <v>0.00357103561865557</v>
       </c>
       <c r="P6">
-        <v>0.7768495068152008</v>
+        <v>0.00357103561865557</v>
       </c>
       <c r="Q6">
-        <v>27.30486527389861</v>
+        <v>0.004787983004</v>
       </c>
       <c r="R6">
-        <v>27.30486527389861</v>
+        <v>0.043091847036</v>
       </c>
       <c r="S6">
-        <v>0.4146528625329593</v>
+        <v>6.314085734858863E-05</v>
       </c>
       <c r="T6">
-        <v>0.4146528625329593</v>
+        <v>6.314085734858863E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.92725472718304</v>
+        <v>0.070204</v>
       </c>
       <c r="H7">
-        <v>1.92725472718304</v>
+        <v>0.210612</v>
       </c>
       <c r="I7">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J7">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.492431121557833</v>
+        <v>3.783576333333334</v>
       </c>
       <c r="N7">
-        <v>0.492431121557833</v>
+        <v>11.350729</v>
       </c>
       <c r="O7">
-        <v>0.02700110069145261</v>
+        <v>0.1981097909449359</v>
       </c>
       <c r="P7">
-        <v>0.02700110069145261</v>
+        <v>0.1981097909449359</v>
       </c>
       <c r="Q7">
-        <v>0.9490402068343798</v>
+        <v>0.2656221929053334</v>
       </c>
       <c r="R7">
-        <v>0.9490402068343798</v>
+        <v>2.390599736148</v>
       </c>
       <c r="S7">
-        <v>0.01441216554175511</v>
+        <v>0.003502855581743611</v>
       </c>
       <c r="T7">
-        <v>0.01441216554175511</v>
+        <v>0.003502855581743612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.92725472718304</v>
+        <v>1.750232666666667</v>
       </c>
       <c r="H8">
-        <v>1.92725472718304</v>
+        <v>5.250698</v>
       </c>
       <c r="I8">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="J8">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.0534272204775867</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="N8">
-        <v>0.0534272204775867</v>
+        <v>0.102857</v>
       </c>
       <c r="O8">
-        <v>0.002929534094465907</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="P8">
-        <v>0.002929534094465907</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="Q8">
-        <v>0.1029678632256795</v>
+        <v>0.06000789379844444</v>
       </c>
       <c r="R8">
-        <v>0.1029678632256795</v>
+        <v>0.540071044186</v>
       </c>
       <c r="S8">
-        <v>0.001563674415059074</v>
+        <v>0.0007913457209333145</v>
       </c>
       <c r="T8">
-        <v>0.001563674415059074</v>
+        <v>0.0007913457209333146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.92725472718304</v>
+        <v>1.750232666666667</v>
       </c>
       <c r="H9">
-        <v>1.92725472718304</v>
+        <v>5.250698</v>
       </c>
       <c r="I9">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="J9">
-        <v>0.5337621494192415</v>
+        <v>0.4408087639602368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52383677487363</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N9">
-        <v>3.52383677487363</v>
+        <v>43.730186</v>
       </c>
       <c r="O9">
-        <v>0.1932198583988807</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="P9">
-        <v>0.1932198583988807</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="Q9">
-        <v>6.791331082196641</v>
+        <v>25.51266668553644</v>
       </c>
       <c r="R9">
-        <v>6.791331082196641</v>
+        <v>229.614000169828</v>
       </c>
       <c r="S9">
-        <v>0.1031334469294681</v>
+        <v>0.3364447297385491</v>
       </c>
       <c r="T9">
-        <v>0.1031334469294681</v>
+        <v>0.3364447297385491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.250698</v>
+      </c>
+      <c r="I10">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J10">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.005527333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.016582</v>
+      </c>
+      <c r="O10">
+        <v>0.0002894137066834145</v>
+      </c>
+      <c r="P10">
+        <v>0.0002894137066834146</v>
+      </c>
+      <c r="Q10">
+        <v>0.009674119359555554</v>
+      </c>
+      <c r="R10">
+        <v>0.08706707423599999</v>
+      </c>
+      <c r="S10">
+        <v>0.0001275760983162665</v>
+      </c>
+      <c r="T10">
+        <v>0.0001275760983162665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.250698</v>
+      </c>
+      <c r="I11">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J11">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.890187</v>
+      </c>
+      <c r="O11">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="P11">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="Q11">
+        <v>1.102755677836222</v>
+      </c>
+      <c r="R11">
+        <v>9.924801100525999</v>
+      </c>
+      <c r="S11">
+        <v>0.01454243653046248</v>
+      </c>
+      <c r="T11">
+        <v>0.01454243653046248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H12">
+        <v>5.250698</v>
+      </c>
+      <c r="I12">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J12">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.068201</v>
+      </c>
+      <c r="N12">
+        <v>0.204603</v>
+      </c>
+      <c r="O12">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="P12">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="Q12">
+        <v>0.1193676180993333</v>
+      </c>
+      <c r="R12">
+        <v>1.074308562894</v>
+      </c>
+      <c r="S12">
+        <v>0.001574143797117541</v>
+      </c>
+      <c r="T12">
+        <v>0.001574143797117541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.250698</v>
+      </c>
+      <c r="I13">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J13">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="N13">
+        <v>11.350729</v>
+      </c>
+      <c r="O13">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="P13">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="Q13">
+        <v>6.62213889542689</v>
+      </c>
+      <c r="R13">
+        <v>59.599250058842</v>
+      </c>
+      <c r="S13">
+        <v>0.08732853207485811</v>
+      </c>
+      <c r="T13">
+        <v>0.08732853207485812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.512578</v>
+      </c>
+      <c r="I14">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J14">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03428566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.102857</v>
+      </c>
+      <c r="O14">
+        <v>0.001795213220862138</v>
+      </c>
+      <c r="P14">
+        <v>0.001795213220862138</v>
+      </c>
+      <c r="Q14">
+        <v>0.005858026149555555</v>
+      </c>
+      <c r="R14">
+        <v>0.052722235346</v>
+      </c>
+      <c r="S14">
+        <v>7.725190192704979E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.725190192704979E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.512578</v>
+      </c>
+      <c r="I15">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J15">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.57672866666667</v>
+      </c>
+      <c r="N15">
+        <v>43.730186</v>
+      </c>
+      <c r="O15">
+        <v>0.7632441939582174</v>
+      </c>
+      <c r="P15">
+        <v>0.7632441939582175</v>
+      </c>
+      <c r="Q15">
+        <v>2.490570142167556</v>
+      </c>
+      <c r="R15">
+        <v>22.415131279508</v>
+      </c>
+      <c r="S15">
+        <v>0.03284404600682157</v>
+      </c>
+      <c r="T15">
+        <v>0.03284404600682157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.512578</v>
+      </c>
+      <c r="I16">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J16">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.005527333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.016582</v>
+      </c>
+      <c r="O16">
+        <v>0.0002894137066834145</v>
+      </c>
+      <c r="P16">
+        <v>0.0002894137066834146</v>
+      </c>
+      <c r="Q16">
+        <v>0.0009443964884444444</v>
+      </c>
+      <c r="R16">
+        <v>0.008499568395999999</v>
+      </c>
+      <c r="S16">
+        <v>1.245409683107946E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.245409683107946E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.512578</v>
+      </c>
+      <c r="I17">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J17">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.890187</v>
+      </c>
+      <c r="O17">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="P17">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="Q17">
+        <v>0.1076520302317778</v>
+      </c>
+      <c r="R17">
+        <v>0.9688682720859999</v>
+      </c>
+      <c r="S17">
+        <v>0.001419646117889735</v>
+      </c>
+      <c r="T17">
+        <v>0.001419646117889735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.512578</v>
+      </c>
+      <c r="I18">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J18">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.068201</v>
+      </c>
+      <c r="N18">
+        <v>0.204603</v>
+      </c>
+      <c r="O18">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="P18">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="Q18">
+        <v>0.01165277739266667</v>
+      </c>
+      <c r="R18">
+        <v>0.104874996534</v>
+      </c>
+      <c r="S18">
+        <v>0.0001536693748600501</v>
+      </c>
+      <c r="T18">
+        <v>0.0001536693748600501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.512578</v>
+      </c>
+      <c r="I19">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J19">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="N19">
+        <v>11.350729</v>
+      </c>
+      <c r="O19">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="P19">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="Q19">
+        <v>0.6464593299291113</v>
+      </c>
+      <c r="R19">
+        <v>5.818133969362</v>
+      </c>
+      <c r="S19">
+        <v>0.008525092152294156</v>
+      </c>
+      <c r="T19">
+        <v>0.008525092152294156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.937622</v>
+      </c>
+      <c r="I20">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J20">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.03428566666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.102857</v>
+      </c>
+      <c r="O20">
+        <v>0.001795213220862138</v>
+      </c>
+      <c r="P20">
+        <v>0.001795213220862138</v>
+      </c>
+      <c r="Q20">
+        <v>0.06785844289488889</v>
+      </c>
+      <c r="R20">
+        <v>0.6107259860540001</v>
+      </c>
+      <c r="S20">
+        <v>0.0008948737410187195</v>
+      </c>
+      <c r="T20">
+        <v>0.0008948737410187197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.937622</v>
+      </c>
+      <c r="I21">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J21">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.57672866666667</v>
+      </c>
+      <c r="N21">
+        <v>43.730186</v>
+      </c>
+      <c r="O21">
+        <v>0.7632441939582174</v>
+      </c>
+      <c r="P21">
+        <v>0.7632441939582175</v>
+      </c>
+      <c r="Q21">
+        <v>28.85036827307689</v>
+      </c>
+      <c r="R21">
+        <v>259.653314457692</v>
+      </c>
+      <c r="S21">
+        <v>0.3804602034014645</v>
+      </c>
+      <c r="T21">
+        <v>0.3804602034014646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H22">
+        <v>5.937622</v>
+      </c>
+      <c r="I22">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J22">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.005527333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.016582</v>
+      </c>
+      <c r="O22">
+        <v>0.0002894137066834145</v>
+      </c>
+      <c r="P22">
+        <v>0.0002894137066834146</v>
+      </c>
+      <c r="Q22">
+        <v>0.01093973866711111</v>
+      </c>
+      <c r="R22">
+        <v>0.098457648004</v>
+      </c>
+      <c r="S22">
+        <v>0.0001442662762240042</v>
+      </c>
+      <c r="T22">
+        <v>0.0001442662762240043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H23">
+        <v>5.937622</v>
+      </c>
+      <c r="I23">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J23">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.890187</v>
+      </c>
+      <c r="O23">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="P23">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="Q23">
+        <v>1.247023990590444</v>
+      </c>
+      <c r="R23">
+        <v>11.223215915314</v>
+      </c>
+      <c r="S23">
+        <v>0.0164449547616103</v>
+      </c>
+      <c r="T23">
+        <v>0.0164449547616103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H24">
+        <v>5.937622</v>
+      </c>
+      <c r="I24">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J24">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.068201</v>
+      </c>
+      <c r="N24">
+        <v>0.204603</v>
+      </c>
+      <c r="O24">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="P24">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="Q24">
+        <v>0.1349839193406667</v>
+      </c>
+      <c r="R24">
+        <v>1.214855274066</v>
+      </c>
+      <c r="S24">
+        <v>0.00178008158932939</v>
+      </c>
+      <c r="T24">
+        <v>0.00178008158932939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H25">
+        <v>5.937622</v>
+      </c>
+      <c r="I25">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J25">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="N25">
+        <v>11.350729</v>
+      </c>
+      <c r="O25">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="P25">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="Q25">
+        <v>7.488482025159779</v>
+      </c>
+      <c r="R25">
+        <v>67.396338226438</v>
+      </c>
+      <c r="S25">
+        <v>0.09875331113604004</v>
+      </c>
+      <c r="T25">
+        <v>0.09875331113604006</v>
       </c>
     </row>
   </sheetData>
